--- a/Documents/Gantt Chart/Gantt_Weekly_Status1-2.xlsx
+++ b/Documents/Gantt Chart/Gantt_Weekly_Status1-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a98965/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satan\Documents\GitHub\Trajectory\Documents\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74BE462C-0272-6344-B0CE-0B3FD1076D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F28253-62F8-449B-98EE-A4ED39A70BB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="15260" activeTab="2" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t>Task</t>
   </si>
@@ -139,30 +137,9 @@
     <t>Noah Mammen</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Find/Make Network Interface</t>
-  </si>
-  <si>
-    <t>Implement Interface</t>
-  </si>
-  <si>
-    <t>Team Meetings</t>
-  </si>
-  <si>
-    <t>Planning/Diagrams</t>
-  </si>
-  <si>
     <t>Programming</t>
   </si>
   <si>
-    <t>Intermittent Integration</t>
-  </si>
-  <si>
-    <t>Final Product Implementation</t>
-  </si>
-  <si>
     <t>Yingruo Liu</t>
   </si>
   <si>
@@ -220,18 +197,9 @@
     <t>5,7</t>
   </si>
   <si>
-    <t>5, 6</t>
-  </si>
-  <si>
-    <t>4, 7, 8</t>
-  </si>
-  <si>
     <t>Programming Ammo Pickup/Exchange</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>Complete total :</t>
   </si>
   <si>
@@ -302,6 +270,39 @@
   </si>
   <si>
     <t>tdb</t>
+  </si>
+  <si>
+    <t>Diagrams/Planning</t>
+  </si>
+  <si>
+    <t>Research Player/Camera</t>
+  </si>
+  <si>
+    <t>Programming Player</t>
+  </si>
+  <si>
+    <t>Player/Weapon Interaction</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Research AI</t>
+  </si>
+  <si>
+    <t>Programming AI</t>
+  </si>
+  <si>
+    <t>Tuning AI</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Final Touchups/Refinements</t>
+  </si>
+  <si>
+    <t>3,6</t>
   </si>
 </sst>
 </file>
@@ -395,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -520,11 +521,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -563,22 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,6 +600,34 @@
     <xf numFmtId="8" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,49 +655,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Management Summary"/>
-      <sheetName val="Gantt"/>
-      <sheetName val="Meetings"/>
       <sheetName val="SA"/>
-      <sheetName val="Overhead"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="C5">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>11</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -977,25 +961,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1596FC7-FBA9-FA4D-A1A3-B3A3B96D1437}">
-  <dimension ref="A1:BR84"/>
+  <dimension ref="A1:BR86"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AU48" sqref="AU48:AW48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:68">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="27"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="50"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1003,16 +987,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:68">
@@ -1208,12 +1192,12 @@
       </c>
     </row>
     <row r="3" spans="1:68">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1224,17 +1208,17 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:68">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -1242,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J4" s="16">
         <v>1</v>
@@ -1264,12 +1248,12 @@
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -1277,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J5" s="16">
         <v>1</v>
@@ -1288,12 +1272,12 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:68">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -1301,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O6" s="16">
         <v>3</v>
@@ -1312,12 +1296,12 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:68">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -1325,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="T7" s="16">
         <v>4</v>
@@ -1335,12 +1319,12 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:68">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8">
         <v>6</v>
       </c>
@@ -1348,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="X8" s="16">
         <v>5</v>
@@ -1356,12 +1340,12 @@
       <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:68">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9">
         <v>7</v>
       </c>
@@ -1370,20 +1354,20 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:68">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10">
         <v>8</v>
       </c>
@@ -1391,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AB10" s="16">
         <v>7</v>
@@ -1402,12 +1386,12 @@
       <c r="AF10" s="15"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11">
         <v>9</v>
       </c>
@@ -1415,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1428,28 +1412,28 @@
       <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:68">
-      <c r="A12" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="F13">
         <f>SUM(F3:F11)</f>
         <v>28</v>
@@ -1539,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1563,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1587,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1611,12 +1595,12 @@
         <v>1</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1636,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -1666,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O20" s="16">
         <v>4</v>
@@ -1675,12 +1659,12 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="A21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21">
         <v>7</v>
       </c>
@@ -1688,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="R21" s="16">
         <v>6</v>
@@ -1713,10 +1697,10 @@
         <v>6</v>
       </c>
       <c r="H22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -1738,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AD23" s="16">
         <v>8</v>
@@ -1763,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -1794,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -1823,7 +1807,7 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1934,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I30" s="15"/>
     </row>
@@ -1952,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="16">
@@ -1973,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="16">
@@ -1994,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="16">
@@ -2016,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N34" s="16">
         <v>4</v>
@@ -2024,7 +2008,7 @@
     </row>
     <row r="35" spans="1:65">
       <c r="A35" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2116,816 +2100,1184 @@
       <c r="BM37" s="2"/>
     </row>
     <row r="38" spans="1:65">
-      <c r="A38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>1.5</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H38" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13"/>
+      <c r="AQ38" s="13"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="13"/>
+      <c r="AT38" s="13"/>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="13"/>
+      <c r="AW38" s="13"/>
+      <c r="AX38" s="13"/>
+      <c r="AY38" s="13"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="13"/>
     </row>
     <row r="39" spans="1:65">
-      <c r="A39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>6</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="16">
+        <v>3</v>
+      </c>
+      <c r="H39" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="18">
         <v>1</v>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="13"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="13"/>
     </row>
     <row r="40" spans="1:65">
-      <c r="A40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="A40" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" s="16">
+        <v>10</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="19">
         <v>2</v>
       </c>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="13"/>
+      <c r="AT40" s="13"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="13"/>
     </row>
     <row r="41" spans="1:65">
-      <c r="A41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="A41" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41">
-        <v>16</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="13"/>
+      <c r="AQ41" s="13"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="13"/>
+      <c r="AT41" s="13"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="13"/>
+      <c r="AW41" s="13"/>
+      <c r="AX41" s="13"/>
+      <c r="AY41" s="13"/>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="13"/>
     </row>
     <row r="42" spans="1:65">
-      <c r="A42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="A42" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42" s="6">
-        <v>6</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>45</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="13"/>
+      <c r="AQ42" s="13"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="13"/>
+      <c r="AT42" s="13"/>
+      <c r="AU42" s="13"/>
+      <c r="AV42" s="13"/>
+      <c r="AW42" s="13"/>
+      <c r="AX42" s="13"/>
+      <c r="AY42" s="13"/>
+      <c r="AZ42" s="13"/>
+      <c r="BA42" s="13"/>
     </row>
     <row r="43" spans="1:65">
-      <c r="A43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
       <c r="E43">
         <v>6</v>
       </c>
       <c r="F43">
-        <v>20</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z43" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
-      <c r="AJ43" s="15"/>
-      <c r="AK43" s="15"/>
-      <c r="AL43" s="15"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="15"/>
-      <c r="AO43" s="15"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="15"/>
-      <c r="AR43" s="15"/>
-      <c r="AS43" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="16">
+        <v>5</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="13"/>
+      <c r="AT43" s="13"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="13"/>
+      <c r="AW43" s="13"/>
+      <c r="AX43" s="13"/>
+      <c r="AY43" s="13"/>
+      <c r="AZ43" s="13"/>
+      <c r="BA43" s="13"/>
     </row>
     <row r="44" spans="1:65">
-      <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
       <c r="E44">
         <v>7</v>
       </c>
       <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT44" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU44" s="15"/>
-      <c r="AV44" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="13"/>
+      <c r="AQ44" s="13"/>
+      <c r="AR44" s="13"/>
+      <c r="AS44" s="13"/>
+      <c r="AT44" s="13"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="13"/>
+      <c r="AW44" s="13"/>
+      <c r="AX44" s="13"/>
+      <c r="AY44" s="13"/>
+      <c r="AZ44" s="13"/>
+      <c r="BA44" s="13"/>
     </row>
     <row r="45" spans="1:65">
-      <c r="A45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT45" s="16">
-        <v>6</v>
-      </c>
-      <c r="AU45" s="15"/>
-      <c r="AV45" s="15"/>
-    </row>
-    <row r="46" spans="1:65">
-      <c r="A46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46">
+      <c r="H45" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="13"/>
+      <c r="AW45" s="13"/>
+      <c r="AX45" s="13"/>
+      <c r="AY45" s="13"/>
+      <c r="AZ45" s="13"/>
+      <c r="BA45" s="13"/>
+    </row>
+    <row r="46" spans="1:65" s="24" customFormat="1">
+      <c r="A46" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="24">
         <v>9</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="24">
         <v>4</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW46" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX46" s="15"/>
-      <c r="AY46" s="15"/>
-      <c r="AZ46" s="15"/>
-    </row>
-    <row r="47" spans="1:65">
-      <c r="A47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="13"/>
+      <c r="AW46" s="13"/>
+      <c r="AX46" s="13"/>
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="13"/>
+    </row>
+    <row r="47" spans="1:65" s="24" customFormat="1">
+      <c r="A47" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="24">
+        <v>10</v>
+      </c>
+      <c r="F47" s="24">
+        <v>2</v>
+      </c>
+      <c r="H47" s="60"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="13"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="13"/>
+      <c r="AQ47" s="13"/>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="16"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="13"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="13"/>
     </row>
     <row r="48" spans="1:65">
-      <c r="A48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48">
+        <v>11</v>
+      </c>
       <c r="F48">
-        <f>SUM(F38:F46)</f>
-        <v>69</v>
-      </c>
-      <c r="G48">
-        <v>1.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="13"/>
+      <c r="AQ48" s="13"/>
+      <c r="AR48" s="13"/>
+      <c r="AS48" s="13"/>
+      <c r="AT48" s="13"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="15"/>
+      <c r="AX48" s="13"/>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="13"/>
+      <c r="BA48" s="13"/>
     </row>
     <row r="49" spans="1:69">
-      <c r="A49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
-      <c r="BE49" s="2"/>
-      <c r="BF49" s="2"/>
-      <c r="BG49" s="2"/>
-      <c r="BH49" s="2"/>
-      <c r="BI49" s="2"/>
-      <c r="BJ49" s="2"/>
-      <c r="BK49" s="2"/>
-      <c r="BL49" s="2"/>
-      <c r="BM49" s="2"/>
-      <c r="BN49" s="2"/>
-      <c r="BO49" s="2"/>
-      <c r="BP49" s="2"/>
-      <c r="BQ49" s="2"/>
+      <c r="A49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:69">
       <c r="A50" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50">
-        <v>1</v>
-      </c>
       <c r="F50">
-        <v>1</v>
+        <f>SUM(F38:F48)</f>
+        <v>48</v>
       </c>
       <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I50" s="7"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="51" spans="1:69">
-      <c r="A51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J51" s="18">
-        <v>1</v>
-      </c>
-      <c r="K51" s="7"/>
+      <c r="A51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="2"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51" s="2"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="2"/>
+      <c r="BQ51" s="2"/>
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" s="19">
-        <v>2</v>
-      </c>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:69">
       <c r="A53" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z53" s="16">
-        <v>3</v>
-      </c>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
-      <c r="AF53" s="15"/>
-      <c r="AG53" s="15"/>
-      <c r="AH53" s="15"/>
-      <c r="AI53" s="15"/>
-      <c r="AJ53" s="15"/>
-      <c r="AK53" s="15"/>
-      <c r="AL53" s="13"/>
-      <c r="AM53" s="13"/>
-      <c r="AN53" s="13"/>
-      <c r="AO53" s="13"/>
-      <c r="AP53" s="13"/>
-      <c r="AQ53" s="13"/>
-      <c r="AR53" s="13"/>
-      <c r="AS53" s="13"/>
-      <c r="AT53" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="18">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:69">
       <c r="A54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>23</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z54" s="16">
-        <v>3</v>
-      </c>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-      <c r="AG54" s="15"/>
-      <c r="AH54" s="15"/>
-      <c r="AI54" s="15"/>
-      <c r="AJ54" s="15"/>
-      <c r="AK54" s="15"/>
-      <c r="AL54" s="15"/>
-      <c r="AM54" s="15"/>
-      <c r="AN54" s="15"/>
-      <c r="AO54" s="15"/>
-      <c r="AP54" s="15"/>
-      <c r="AQ54" s="15"/>
-      <c r="AR54" s="15"/>
-      <c r="AS54" s="15"/>
-      <c r="AT54" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="19">
+        <v>2</v>
+      </c>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
     </row>
     <row r="55" spans="1:69">
       <c r="A55" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU55" s="16">
-        <v>5</v>
-      </c>
-      <c r="AV55" s="15"/>
-      <c r="AW55" s="15"/>
-      <c r="AX55" s="15"/>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" s="15"/>
-      <c r="BA55" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="Z55" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="15"/>
+      <c r="AL55" s="13"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="13"/>
+      <c r="AO55" s="13"/>
+      <c r="AP55" s="13"/>
+      <c r="AQ55" s="13"/>
+      <c r="AR55" s="13"/>
+      <c r="AS55" s="13"/>
+      <c r="AT55" s="13"/>
     </row>
     <row r="56" spans="1:69">
       <c r="A56" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB56" s="16">
-        <v>6</v>
-      </c>
-      <c r="BC56" s="15"/>
-      <c r="BD56" s="15"/>
-      <c r="BE56" s="15"/>
-      <c r="BF56" s="15"/>
-      <c r="BG56" s="15"/>
-      <c r="BH56" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="Z56" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="15"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
     </row>
     <row r="57" spans="1:69">
       <c r="A57" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU57" s="16">
+        <v>5</v>
+      </c>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="15"/>
+      <c r="AX57" s="15"/>
+      <c r="AY57" s="15"/>
+      <c r="AZ57" s="15"/>
+      <c r="BA57" s="15"/>
+    </row>
+    <row r="58" spans="1:69">
+      <c r="A58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB58" s="16">
+        <v>6</v>
+      </c>
+      <c r="BC58" s="15"/>
+      <c r="BD58" s="15"/>
+      <c r="BE58" s="15"/>
+      <c r="BF58" s="15"/>
+      <c r="BG58" s="15"/>
+      <c r="BH58" s="15"/>
+    </row>
+    <row r="59" spans="1:69">
+      <c r="A59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59">
         <v>8</v>
       </c>
-      <c r="F57">
+      <c r="F59">
         <v>2</v>
       </c>
-      <c r="H57" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI57" s="16">
+      <c r="H59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI59" s="16">
         <v>7</v>
       </c>
-      <c r="BJ57" s="15"/>
-      <c r="BK57" s="15"/>
-      <c r="BL57" s="15"/>
-      <c r="BM57" s="15"/>
-    </row>
-    <row r="58" spans="1:69">
-      <c r="A58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="BN58" s="16">
+      <c r="BJ59" s="15"/>
+      <c r="BK59" s="15"/>
+      <c r="BL59" s="15"/>
+      <c r="BM59" s="15"/>
+    </row>
+    <row r="60" spans="1:69">
+      <c r="A60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="BN60" s="16">
         <v>8</v>
       </c>
-      <c r="BO58" s="15"/>
-    </row>
-    <row r="59" spans="1:69">
-      <c r="A59" s="9" t="s">
+      <c r="BO60" s="15"/>
+    </row>
+    <row r="61" spans="1:69">
+      <c r="A61" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F59">
+      <c r="F61">
         <v>66</v>
       </c>
-      <c r="G59">
+      <c r="G61">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:69">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:69">
+      <c r="A62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AM62" s="2"/>
+      <c r="AN62" s="2"/>
+      <c r="AO62" s="2"/>
+      <c r="AP62" s="2"/>
+      <c r="AQ62" s="2"/>
+      <c r="AR62" s="2"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2"/>
+      <c r="AV62" s="2"/>
+      <c r="AW62" s="2"/>
+      <c r="AX62" s="2"/>
+      <c r="AY62" s="2"/>
+      <c r="AZ62" s="2"/>
+      <c r="BA62" s="2"/>
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="2"/>
+      <c r="BD62" s="2"/>
+      <c r="BE62" s="2"/>
+      <c r="BF62" s="2"/>
+      <c r="BG62" s="2"/>
+      <c r="BH62" s="2"/>
+      <c r="BI62" s="2"/>
+      <c r="BJ62" s="2"/>
+      <c r="BK62" s="2"/>
+      <c r="BL62" s="2"/>
+      <c r="BM62" s="2"/>
+      <c r="BN62" s="2"/>
+      <c r="BO62" s="2"/>
+      <c r="BP62" s="2"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="23"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="2"/>
-      <c r="AQ60" s="2"/>
-      <c r="AR60" s="2"/>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="2"/>
-      <c r="AU60" s="2"/>
-      <c r="AV60" s="2"/>
-      <c r="AW60" s="2"/>
-      <c r="AX60" s="2"/>
-      <c r="AY60" s="2"/>
-      <c r="AZ60" s="2"/>
-      <c r="BA60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BC60" s="2"/>
-      <c r="BD60" s="2"/>
-      <c r="BE60" s="2"/>
-      <c r="BF60" s="2"/>
-      <c r="BG60" s="2"/>
-      <c r="BH60" s="2"/>
-      <c r="BI60" s="2"/>
-      <c r="BJ60" s="2"/>
-      <c r="BK60" s="2"/>
-      <c r="BL60" s="2"/>
-      <c r="BM60" s="2"/>
-      <c r="BN60" s="2"/>
-      <c r="BO60" s="2"/>
-      <c r="BP60" s="2"/>
-    </row>
-    <row r="64" spans="1:69">
-      <c r="B64" s="23"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73">
+      <c r="C75">
         <v>22.5</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="C74" s="21">
+    <row r="76" spans="1:5">
+      <c r="C76" s="21">
         <v>22500</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D76" s="21">
         <v>35000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="B76" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="B77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>72</v>
+      <c r="B80" t="s">
+        <v>60</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2939,7 +3291,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2950,7 +3305,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2961,10 +3319,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2975,20 +3330,50 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
+  <mergeCells count="25">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A7:D7"/>
@@ -2997,6 +3382,12 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3011,42 +3402,42 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="20"/>
       <c r="B1" s="20" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M1" t="s">
         <v>25</v>
@@ -3055,23 +3446,23 @@
     <row r="2" spans="1:13">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" s="20">
         <v>3</v>
@@ -3086,7 +3477,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20">
@@ -3100,13 +3491,13 @@
       </c>
       <c r="F4" s="20"/>
       <c r="M4">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" ref="M4:M9" si="0">SUM(C4:L4)</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="20" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -3118,13 +3509,13 @@
       </c>
       <c r="F5" s="20"/>
       <c r="M5">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20">
@@ -3138,13 +3529,13 @@
       </c>
       <c r="F6" s="20"/>
       <c r="M6">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -3156,13 +3547,13 @@
       </c>
       <c r="F7" s="20"/>
       <c r="M7">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20">
@@ -3176,13 +3567,13 @@
       </c>
       <c r="F8" s="20"/>
       <c r="M8">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -3192,7 +3583,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="M9">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -3205,13 +3596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAAE31A-1B20-F843-988A-CB78A20B40A4}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="114" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1">
+    <row r="1" spans="1:21" ht="16.2" thickBot="1">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3237,563 +3628,563 @@
     <row r="2" spans="1:21">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="K2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="O2" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
       <c r="R2" s="22"/>
-      <c r="S2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
-    </row>
-    <row r="3" spans="1:21" ht="17" thickBot="1">
+      <c r="S2" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="55"/>
+      <c r="U2" s="56"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.2" thickBot="1">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
-      <c r="C3" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>84</v>
+      <c r="C3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="22"/>
-      <c r="G3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>84</v>
+      <c r="G3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J3" s="22"/>
-      <c r="K3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>84</v>
+      <c r="K3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="N3" s="22"/>
-      <c r="O3" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>84</v>
+      <c r="O3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="R3" s="22"/>
-      <c r="S3" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="17" thickBot="1">
+      <c r="S3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.2" thickBot="1">
       <c r="A4" s="22"/>
-      <c r="B4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="B4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="33">
         <f>(G4+K4 +O4+S4)</f>
         <v>8900</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <f t="shared" ref="D4:D9" si="0">(H4+L4 +P4+T4)</f>
         <v>750</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="35">
         <f>(C4-D4)</f>
         <v>8150</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="43">
+      <c r="G4" s="36">
         <f>28*100</f>
         <v>2800</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="37">
         <f>2.5*100</f>
         <v>250</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="38">
         <f>(G4-H4)</f>
         <v>2550</v>
       </c>
       <c r="J4" s="22"/>
-      <c r="K4" s="40">
+      <c r="K4" s="33">
         <v>2000</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="34">
         <f>O28*100</f>
         <v>500</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="35">
         <f>(K4-L4)</f>
         <v>1500</v>
       </c>
       <c r="N4" s="22"/>
-      <c r="O4" s="40">
+      <c r="O4" s="33">
         <f>([1]SA!C5)*100</f>
         <v>1100</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="34">
         <f>0*100</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="Q4" s="35">
         <f>(O4-P4)</f>
         <v>1100</v>
       </c>
       <c r="R4" s="22"/>
-      <c r="S4" s="40">
+      <c r="S4" s="33">
         <v>3000</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="34">
         <f>0*100</f>
         <v>0</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="35">
         <f>(S4-T4)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17" thickBot="1">
+    <row r="5" spans="1:21" ht="16.2" thickBot="1">
       <c r="A5" s="22"/>
-      <c r="B5" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="B5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="36">
         <f t="shared" ref="C5:C9" si="1">(G5+K5 +O5+S5)</f>
         <v>8900</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="38">
         <f t="shared" ref="E5:E9" si="2">(C5-D5)</f>
         <v>7600</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="43">
+      <c r="G5" s="36">
         <f>28*100</f>
         <v>2800</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="37">
         <f>5*100</f>
         <v>500</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="38">
         <f t="shared" ref="I5:I9" si="3">(G5-H5)</f>
         <v>2300</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="40">
+      <c r="K5" s="33">
         <v>2000</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="37">
         <f>O27*100</f>
         <v>800</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="38">
         <f t="shared" ref="M5:M9" si="4">(K5-L5)</f>
         <v>1200</v>
       </c>
       <c r="N5" s="22"/>
-      <c r="O5" s="43">
+      <c r="O5" s="36">
         <f>([1]SA!C9)*100</f>
         <v>1100</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="34">
         <f t="shared" ref="P5:P9" si="5">0*100</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="38">
         <f t="shared" ref="Q5:Q9" si="6">(O5-P5)</f>
         <v>1100</v>
       </c>
       <c r="R5" s="22"/>
-      <c r="S5" s="43">
+      <c r="S5" s="36">
         <v>3000</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="34">
         <f t="shared" ref="T5:T9" si="7">0*100</f>
         <v>0</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="38">
         <f t="shared" ref="U5:U9" si="8">(S5-T5)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17" thickBot="1">
+    <row r="6" spans="1:21" ht="16.2" thickBot="1">
       <c r="A6" s="22"/>
-      <c r="B6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="43">
+      <c r="B6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="36">
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="38">
         <f t="shared" si="2"/>
         <v>6200</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="43">
+      <c r="G6" s="36">
         <f>6*100</f>
         <v>600</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="37">
         <f>0*100</f>
         <v>0</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="38">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="J6" s="22"/>
-      <c r="K6" s="40">
+      <c r="K6" s="33">
         <v>2000</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="37">
         <f xml:space="preserve"> O30*100</f>
         <v>500</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="38">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="N6" s="22"/>
-      <c r="O6" s="43">
+      <c r="O6" s="36">
         <f>([1]SA!C15)*100</f>
         <v>1100</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="38">
         <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="R6" s="22"/>
-      <c r="S6" s="43">
+      <c r="S6" s="36">
         <v>3000</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="38">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17" thickBot="1">
+    <row r="7" spans="1:21" ht="16.2" thickBot="1">
       <c r="A7" s="22"/>
-      <c r="B7" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="B7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="36">
         <f>(G7+K7 +O7+S7)</f>
         <v>11400</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="37">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="38">
         <f t="shared" si="2"/>
         <v>10450</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="43">
+      <c r="G7" s="36">
         <f>53*100</f>
         <v>5300</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="37">
         <f>1.5*100</f>
         <v>150</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="38">
         <f t="shared" si="3"/>
         <v>5150</v>
       </c>
       <c r="J7" s="22"/>
-      <c r="K7" s="40">
+      <c r="K7" s="33">
         <v>2000</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="37">
         <f xml:space="preserve"> O29*100</f>
         <v>800</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="38">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="N7" s="22"/>
-      <c r="O7" s="43">
+      <c r="O7" s="36">
         <f>([1]SA!C19)*100</f>
         <v>1100</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="38">
         <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="R7" s="22"/>
-      <c r="S7" s="43">
+      <c r="S7" s="36">
         <v>3000</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="38">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="17" thickBot="1">
+    <row r="8" spans="1:21" ht="16.2" thickBot="1">
       <c r="A8" s="22"/>
-      <c r="B8" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="43">
+      <c r="B8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="36">
         <f>(G8+K8+O8+S8)</f>
         <v>12700</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="37">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="38">
         <f>(C8-D8)</f>
         <v>10800</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="43">
+      <c r="G8" s="36">
         <f>66*100</f>
         <v>6600</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="37">
         <f>11*100</f>
         <v>1100</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="38">
         <f t="shared" si="3"/>
         <v>5500</v>
       </c>
       <c r="J8" s="22"/>
-      <c r="K8" s="40">
+      <c r="K8" s="33">
         <v>2000</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="37">
         <f xml:space="preserve"> O31*100</f>
         <v>800</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="38">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="N8" s="22"/>
-      <c r="O8" s="43">
+      <c r="O8" s="36">
         <f>([1]SA!C23)*100</f>
         <v>1100</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="38">
         <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="R8" s="22"/>
-      <c r="S8" s="43">
+      <c r="S8" s="36">
         <v>3000</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="38">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="17" thickBot="1">
+    <row r="9" spans="1:21" ht="16.2" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="B9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="39">
         <f t="shared" si="1"/>
         <v>6100</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="40">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="41">
         <f t="shared" si="2"/>
         <v>5800</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="43">
+      <c r="G9" s="36">
         <f>0*100</f>
         <v>0</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="37">
         <f>0*100</f>
         <v>0</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="K9" s="40">
+      <c r="K9" s="33">
         <v>2000</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="37">
         <f xml:space="preserve"> O32*100</f>
         <v>300</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="38">
         <f t="shared" si="4"/>
         <v>1700</v>
       </c>
       <c r="N9" s="22"/>
-      <c r="O9" s="46">
+      <c r="O9" s="39">
         <f>([1]SA!C27)*100</f>
         <v>1100</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="41">
         <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="R9" s="22"/>
-      <c r="S9" s="46">
+      <c r="S9" s="39">
         <v>3000</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U9" s="48">
+      <c r="U9" s="41">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1">
+    <row r="10" spans="1:21" ht="16.2" thickBot="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="43">
         <f>SUM(C4:C9)</f>
         <v>54700</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="44">
         <f>SUM(D4:D9)</f>
         <v>5700</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="45">
         <f>SUM(E4:E9)</f>
         <v>49000</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="53">
+      <c r="G10" s="46">
         <f>SUM(G4:G9)</f>
         <v>18100</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="47">
         <f>SUM(H4:H9)</f>
         <v>2000</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="48">
         <f>SUM(I4:I9)</f>
         <v>16100</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="K10" s="53">
+      <c r="K10" s="46">
         <f>SUM(K4:K9)</f>
         <v>12000</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="47">
         <f>SUM(L4:L9)</f>
         <v>3700</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="48">
         <f>SUM(M4:M9)</f>
         <v>8300</v>
       </c>
       <c r="N10" s="22"/>
-      <c r="O10" s="50">
+      <c r="O10" s="43">
         <f>SUM(O4:O9)</f>
         <v>6600</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="44">
         <f>SUM(P4:P9)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="45">
         <f>SUM(Q4:Q9)</f>
         <v>6600</v>
       </c>
       <c r="R10" s="22"/>
-      <c r="S10" s="50">
+      <c r="S10" s="43">
         <f>SUM(S4:S9)</f>
         <v>18000</v>
       </c>
-      <c r="T10" s="51">
+      <c r="T10" s="44">
         <f>SUM(T4:T9)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="52">
+      <c r="U10" s="45">
         <f>SUM(U4:U9)</f>
         <v>18000</v>
       </c>
@@ -3801,43 +4192,43 @@
     <row r="24" spans="1:15">
       <c r="A24" s="22"/>
       <c r="B24" s="22" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O24" t="s">
         <v>25</v>
@@ -3846,22 +4237,22 @@
     <row r="25" spans="1:15">
       <c r="A25" s="22"/>
       <c r="B25" s="22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="22"/>
       <c r="B26" s="22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C26" s="22">
         <v>3</v>
@@ -3879,7 +4270,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22">
@@ -3898,7 +4289,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="22" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3915,7 +4306,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22">
@@ -3934,7 +4325,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -3951,7 +4342,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22">
@@ -3970,7 +4361,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
